--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-dosageinstruction-device.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-dosageinstruction-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-07-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-dosageinstruction-device.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-dosageinstruction-device.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-dosageinstruction-device.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-dosageinstruction-device.xlsx
@@ -330,7 +330,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-dosageinstruction-device.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-dosageinstruction-device.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="107">
   <si>
     <t>Property</t>
   </si>
@@ -583,9 +583,7 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-dosageinstruction-device.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-dosageinstruction-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31</t>
+    <t>2022-03-16</t>
   </si>
   <si>
     <t>Publisher</t>
